--- a/Code/Results/Cases/Case_2_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004205556032126</v>
+        <v>1.035551122635881</v>
       </c>
       <c r="D2">
-        <v>1.025791469799285</v>
+        <v>1.042561351605305</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.030202192423914</v>
+        <v>1.051532467930445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050806038943109</v>
+        <v>1.038245119272223</v>
       </c>
       <c r="J2">
-        <v>1.026261203150198</v>
+        <v>1.04066428011297</v>
       </c>
       <c r="K2">
-        <v>1.036902812044411</v>
+        <v>1.045337691070472</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.041256206584396</v>
+        <v>1.054283708423865</v>
       </c>
       <c r="N2">
-        <v>1.012460537899285</v>
+        <v>1.017477945689646</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009774390462975</v>
+        <v>1.036687812631788</v>
       </c>
       <c r="D3">
-        <v>1.029977884128175</v>
+        <v>1.043423019422623</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.034962221098792</v>
+        <v>1.052537585810179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052550851376644</v>
+        <v>1.038504504137332</v>
       </c>
       <c r="J3">
-        <v>1.030002096468699</v>
+        <v>1.04144362110775</v>
       </c>
       <c r="K3">
-        <v>1.040241039197258</v>
+        <v>1.046010082430127</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.045166474539686</v>
+        <v>1.055100996538723</v>
       </c>
       <c r="N3">
-        <v>1.013719252429033</v>
+        <v>1.017738224862476</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013289136068893</v>
+        <v>1.03742294093165</v>
       </c>
       <c r="D4">
-        <v>1.03262147738613</v>
+        <v>1.043979995198189</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.037970505826756</v>
+        <v>1.053187665690316</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05363766376904</v>
+        <v>1.03867043755345</v>
       </c>
       <c r="J4">
-        <v>1.0323589066903</v>
+        <v>1.041946992407752</v>
       </c>
       <c r="K4">
-        <v>1.042341508090861</v>
+        <v>1.046443945411629</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.047631280858398</v>
+        <v>1.055628927746717</v>
       </c>
       <c r="N4">
-        <v>1.014512026551498</v>
+        <v>1.01790626770715</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014746415926184</v>
+        <v>1.037731897598503</v>
       </c>
       <c r="D5">
-        <v>1.033717808361792</v>
+        <v>1.044214008775504</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.039218684938058</v>
+        <v>1.053460887968347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054084755405825</v>
+        <v>1.038739739638141</v>
       </c>
       <c r="J5">
-        <v>1.033335020993425</v>
+        <v>1.042158391217426</v>
       </c>
       <c r="K5">
-        <v>1.043210794286895</v>
+        <v>1.046626049694986</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.048652413054373</v>
+        <v>1.05585065262693</v>
       </c>
       <c r="N5">
-        <v>1.01484030749972</v>
+        <v>1.017976823205278</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014989933401304</v>
+        <v>1.037783767464148</v>
       </c>
       <c r="D6">
-        <v>1.03390102212598</v>
+        <v>1.044253292532377</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.039427310874249</v>
+        <v>1.053506759014896</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054159257442685</v>
+        <v>1.038751349002843</v>
       </c>
       <c r="J6">
-        <v>1.033498069846272</v>
+        <v>1.042193873208168</v>
       </c>
       <c r="K6">
-        <v>1.043355959263764</v>
+        <v>1.046656608703763</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.048822998105632</v>
+        <v>1.055887868466645</v>
       </c>
       <c r="N6">
-        <v>1.014895139434073</v>
+        <v>1.017988664526057</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013308686996348</v>
+        <v>1.037427069582931</v>
       </c>
       <c r="D7">
-        <v>1.032636184930976</v>
+        <v>1.043983122645371</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.037987248037729</v>
+        <v>1.053191316779737</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053643675972554</v>
+        <v>1.038671365364402</v>
       </c>
       <c r="J7">
-        <v>1.03237200654686</v>
+        <v>1.041949817986966</v>
       </c>
       <c r="K7">
-        <v>1.042353176909677</v>
+        <v>1.046446379844033</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.04764498375395</v>
+        <v>1.055631891299448</v>
       </c>
       <c r="N7">
-        <v>1.014516432462142</v>
+        <v>1.017907210825556</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00610649250146</v>
+        <v>1.035935353001038</v>
       </c>
       <c r="D8">
-        <v>1.027220179293273</v>
+        <v>1.042852676586276</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.031826149330423</v>
+        <v>1.051872214163184</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0514046293821</v>
+        <v>1.038333174217528</v>
       </c>
       <c r="J8">
-        <v>1.027539029215965</v>
+        <v>1.040927851654514</v>
       </c>
       <c r="K8">
-        <v>1.038043639609227</v>
+        <v>1.045565181420701</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.042591604586549</v>
+        <v>1.054560103065317</v>
       </c>
       <c r="N8">
-        <v>1.01289053948457</v>
+        <v>1.017565986003915</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9926923079224869</v>
+        <v>1.033303747291741</v>
       </c>
       <c r="D9">
-        <v>1.017147556546586</v>
+        <v>1.040856234387264</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.020387026216089</v>
+        <v>1.04954549069018</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047121517315404</v>
+        <v>1.037722642065231</v>
       </c>
       <c r="J9">
-        <v>1.018505785260783</v>
+        <v>1.039119992681582</v>
       </c>
       <c r="K9">
-        <v>1.029968420603717</v>
+        <v>1.044003051460288</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.033157776335672</v>
+        <v>1.052664505380456</v>
       </c>
       <c r="N9">
-        <v>1.009849965084959</v>
+        <v>1.016961825762714</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9831964924108741</v>
+        <v>1.031547241863367</v>
       </c>
       <c r="D10">
-        <v>1.01003309115514</v>
+        <v>1.039522272311946</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.012319561306721</v>
+        <v>1.047992781108499</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044017138324872</v>
+        <v>1.037305806336327</v>
       </c>
       <c r="J10">
-        <v>1.012093033222692</v>
+        <v>1.037909999658138</v>
       </c>
       <c r="K10">
-        <v>1.024223527514092</v>
+        <v>1.042955333246334</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.026469888696732</v>
+        <v>1.051396071088834</v>
       </c>
       <c r="N10">
-        <v>1.007690658221677</v>
+        <v>1.016557108789284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9789367883139536</v>
+        <v>1.030786138898844</v>
       </c>
       <c r="D11">
-        <v>1.006846825810518</v>
+        <v>1.038943937482413</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.008709185667789</v>
+        <v>1.047320065611886</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042608371314706</v>
+        <v>1.037122983217668</v>
       </c>
       <c r="J11">
-        <v>1.009212854865714</v>
+        <v>1.037384923874372</v>
       </c>
       <c r="K11">
-        <v>1.02164076590551</v>
+        <v>1.042500161572177</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.023468707460868</v>
+        <v>1.050845704926958</v>
       </c>
       <c r="N11">
-        <v>1.006720732997837</v>
+        <v>1.01638139875721</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.977330731380348</v>
+        <v>1.030503350875613</v>
       </c>
       <c r="D12">
-        <v>1.005646404325326</v>
+        <v>1.038729009566249</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.007349369505694</v>
+        <v>1.047070131173244</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042074876529482</v>
+        <v>1.037054724278529</v>
       </c>
       <c r="J12">
-        <v>1.008126476434176</v>
+        <v>1.03718971515754</v>
       </c>
       <c r="K12">
-        <v>1.020666221794466</v>
+        <v>1.042330864285878</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.022337108815764</v>
+        <v>1.050641104764227</v>
       </c>
       <c r="N12">
-        <v>1.006354876017393</v>
+        <v>1.016316062154437</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9776763407416119</v>
+        <v>1.03056401353631</v>
       </c>
       <c r="D13">
-        <v>1.005904681123409</v>
+        <v>1.038775117254768</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.007641923618755</v>
+        <v>1.047123745590235</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042189784109152</v>
+        <v>1.03706938190683</v>
       </c>
       <c r="J13">
-        <v>1.008360274643437</v>
+        <v>1.037231595894875</v>
       </c>
       <c r="K13">
-        <v>1.020875967469245</v>
+        <v>1.042367189375119</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.022580619209736</v>
+        <v>1.050684999880071</v>
       </c>
       <c r="N13">
-        <v>1.006433611980353</v>
+        <v>1.016330080252143</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9788045266274074</v>
+        <v>1.030762765204491</v>
       </c>
       <c r="D14">
-        <v>1.006747949637203</v>
+        <v>1.038926173691614</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.008597172705225</v>
+        <v>1.047299407138666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042564484037341</v>
+        <v>1.037117348059287</v>
       </c>
       <c r="J14">
-        <v>1.009123398345782</v>
+        <v>1.03736879137824</v>
       </c>
       <c r="K14">
-        <v>1.021560525130297</v>
+        <v>1.042486172024155</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.023375518578246</v>
+        <v>1.050828796077929</v>
       </c>
       <c r="N14">
-        <v>1.006690607099865</v>
+        <v>1.016375999444033</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.979496433758174</v>
+        <v>1.030885211949926</v>
       </c>
       <c r="D15">
-        <v>1.007265243386446</v>
+        <v>1.039019230144667</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.009183210340962</v>
+        <v>1.047407630320295</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042793979009652</v>
+        <v>1.037146855166776</v>
       </c>
       <c r="J15">
-        <v>1.009591358789443</v>
+        <v>1.037453299202511</v>
       </c>
       <c r="K15">
-        <v>1.021980262642404</v>
+        <v>1.042559451164824</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.023863020920655</v>
+        <v>1.050917371162845</v>
       </c>
       <c r="N15">
-        <v>1.006848199833582</v>
+        <v>1.016404282481483</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9834759458272003</v>
+        <v>1.031597742565306</v>
       </c>
       <c r="D16">
-        <v>1.010242241484642</v>
+        <v>1.039560639279465</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.012556605408033</v>
+        <v>1.048037418924671</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044109230400856</v>
+        <v>1.037317890590031</v>
       </c>
       <c r="J16">
-        <v>1.012281917821267</v>
+        <v>1.03794482310507</v>
       </c>
       <c r="K16">
-        <v>1.024392857247098</v>
+        <v>1.042985509788367</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.026666765001988</v>
+        <v>1.051432573314872</v>
       </c>
       <c r="N16">
-        <v>1.007754265061685</v>
+        <v>1.016568760271074</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9859315043527607</v>
+        <v>1.032044552575862</v>
       </c>
       <c r="D17">
-        <v>1.012080650361537</v>
+        <v>1.039900057783488</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.014640501639416</v>
+        <v>1.04843236601394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044916619738095</v>
+        <v>1.037424552539976</v>
       </c>
       <c r="J17">
-        <v>1.013941259645855</v>
+        <v>1.038252837074339</v>
       </c>
       <c r="K17">
-        <v>1.025880126467675</v>
+        <v>1.043252362432274</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.028396608685896</v>
+        <v>1.051755444245967</v>
       </c>
       <c r="N17">
-        <v>1.008313036410797</v>
+        <v>1.016671808214679</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9873496294052437</v>
+        <v>1.032305118800656</v>
       </c>
       <c r="D18">
-        <v>1.01314284312241</v>
+        <v>1.040097965367111</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.015844787872167</v>
+        <v>1.04866269514969</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045381365511554</v>
+        <v>1.037486541802807</v>
       </c>
       <c r="J18">
-        <v>1.014899221016117</v>
+        <v>1.038432386392792</v>
       </c>
       <c r="K18">
-        <v>1.026738505816816</v>
+        <v>1.043407868101914</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.029395511915509</v>
+        <v>1.051943660816119</v>
       </c>
       <c r="N18">
-        <v>1.008635612184475</v>
+        <v>1.016731869494798</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9878308172294075</v>
+        <v>1.032393956636142</v>
       </c>
       <c r="D19">
-        <v>1.013503336568084</v>
+        <v>1.040165434963602</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.016253549818503</v>
+        <v>1.048741225204362</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045538796717057</v>
+        <v>1.037507640406193</v>
       </c>
       <c r="J19">
-        <v>1.015224210406414</v>
+        <v>1.038493589433436</v>
       </c>
       <c r="K19">
-        <v>1.027029669889951</v>
+        <v>1.04346086694305</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.029734430616051</v>
+        <v>1.052007819401412</v>
       </c>
       <c r="N19">
-        <v>1.008745044323008</v>
+        <v>1.016752341240042</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9856695218477455</v>
+        <v>1.031996619325156</v>
       </c>
       <c r="D20">
-        <v>1.011884460378255</v>
+        <v>1.039863648580116</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.014418087435803</v>
+        <v>1.048389995741241</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044830638436705</v>
+        <v>1.037413131980334</v>
       </c>
       <c r="J20">
-        <v>1.013764259493742</v>
+        <v>1.038219801475751</v>
       </c>
       <c r="K20">
-        <v>1.025721506021168</v>
+        <v>1.043223746666558</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.028212063001507</v>
+        <v>1.051720814485435</v>
       </c>
       <c r="N20">
-        <v>1.008253433962894</v>
+        <v>1.016660756785345</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9784729748482407</v>
+        <v>1.030704240027618</v>
       </c>
       <c r="D21">
-        <v>1.006500103339923</v>
+        <v>1.03888169433715</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.008316403489407</v>
+        <v>1.047247680795166</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042454430659247</v>
+        <v>1.037103232894035</v>
       </c>
       <c r="J21">
-        <v>1.008899142978062</v>
+        <v>1.037328395487672</v>
       </c>
       <c r="K21">
-        <v>1.021359366888622</v>
+        <v>1.042451140849407</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.023141913583307</v>
+        <v>1.050786456369623</v>
       </c>
       <c r="N21">
-        <v>1.006615085428053</v>
+        <v>1.016362479322721</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9738095459149839</v>
+        <v>1.029891203311606</v>
       </c>
       <c r="D22">
-        <v>1.003016382930946</v>
+        <v>1.038263672154656</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.004370823648447</v>
+        <v>1.046529126481516</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040901015434126</v>
+        <v>1.036906360268727</v>
       </c>
       <c r="J22">
-        <v>1.005743912654603</v>
+        <v>1.036766936514173</v>
       </c>
       <c r="K22">
-        <v>1.018528320586043</v>
+        <v>1.041964063589778</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.01985618810939</v>
+        <v>1.050198006435066</v>
       </c>
       <c r="N22">
-        <v>1.005552496184107</v>
+        <v>1.016174534906733</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9762954322120285</v>
+        <v>1.030322254249152</v>
       </c>
       <c r="D23">
-        <v>1.004872860731261</v>
+        <v>1.038591357115625</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.006473220328336</v>
+        <v>1.046910077716442</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041730326366898</v>
+        <v>1.037010918342434</v>
       </c>
       <c r="J23">
-        <v>1.007426056061359</v>
+        <v>1.037064671278398</v>
       </c>
       <c r="K23">
-        <v>1.020037810332937</v>
+        <v>1.042222396733789</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.021607656918192</v>
+        <v>1.050510048133715</v>
       </c>
       <c r="N23">
-        <v>1.00611899537351</v>
+        <v>1.016274206313981</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9857879441085304</v>
+        <v>1.032018278453408</v>
       </c>
       <c r="D24">
-        <v>1.011973141385113</v>
+        <v>1.039880100546374</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.014518621413032</v>
+        <v>1.048409141157152</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044869508778775</v>
+        <v>1.037418293134257</v>
       </c>
       <c r="J24">
-        <v>1.013844268776982</v>
+        <v>1.038234729180388</v>
       </c>
       <c r="K24">
-        <v>1.025793207889834</v>
+        <v>1.043236677347002</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.028295482344899</v>
+        <v>1.051736462518831</v>
       </c>
       <c r="N24">
-        <v>1.00828037605924</v>
+        <v>1.016665750589018</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9962524174608632</v>
+        <v>1.033984445157039</v>
       </c>
       <c r="D25">
-        <v>1.019818537843159</v>
+        <v>1.04137289083614</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.023418214305997</v>
+        <v>1.050147278269126</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048270964305919</v>
+        <v>1.037882209021786</v>
       </c>
       <c r="J25">
-        <v>1.020906564280108</v>
+        <v>1.039588203100504</v>
       </c>
       <c r="K25">
-        <v>1.032116793897654</v>
+        <v>1.044408008491422</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.035663552909317</v>
+        <v>1.053155390427034</v>
       </c>
       <c r="N25">
-        <v>1.010658221771296</v>
+        <v>1.017118357610822</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_244/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_244/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.035551122635881</v>
+        <v>1.004205556032127</v>
       </c>
       <c r="D2">
-        <v>1.042561351605305</v>
+        <v>1.025791469799286</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.051532467930445</v>
+        <v>1.030202192423916</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038245119272223</v>
+        <v>1.05080603894311</v>
       </c>
       <c r="J2">
-        <v>1.04066428011297</v>
+        <v>1.026261203150199</v>
       </c>
       <c r="K2">
-        <v>1.045337691070472</v>
+        <v>1.036902812044412</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.054283708423865</v>
+        <v>1.041256206584398</v>
       </c>
       <c r="N2">
-        <v>1.017477945689646</v>
+        <v>1.012460537899286</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036687812631788</v>
+        <v>1.009774390462975</v>
       </c>
       <c r="D3">
-        <v>1.043423019422623</v>
+        <v>1.029977884128175</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.052537585810179</v>
+        <v>1.034962221098792</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038504504137332</v>
+        <v>1.052550851376643</v>
       </c>
       <c r="J3">
-        <v>1.04144362110775</v>
+        <v>1.030002096468699</v>
       </c>
       <c r="K3">
-        <v>1.046010082430127</v>
+        <v>1.040241039197257</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.055100996538723</v>
+        <v>1.045166474539686</v>
       </c>
       <c r="N3">
-        <v>1.017738224862476</v>
+        <v>1.013719252429033</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03742294093165</v>
+        <v>1.013289136068894</v>
       </c>
       <c r="D4">
-        <v>1.043979995198189</v>
+        <v>1.03262147738613</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.053187665690316</v>
+        <v>1.037970505826757</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03867043755345</v>
+        <v>1.053637663769041</v>
       </c>
       <c r="J4">
-        <v>1.041946992407752</v>
+        <v>1.032358906690301</v>
       </c>
       <c r="K4">
-        <v>1.046443945411629</v>
+        <v>1.042341508090862</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.055628927746717</v>
+        <v>1.047631280858399</v>
       </c>
       <c r="N4">
-        <v>1.01790626770715</v>
+        <v>1.014512026551499</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.037731897598503</v>
+        <v>1.014746415926184</v>
       </c>
       <c r="D5">
-        <v>1.044214008775504</v>
+        <v>1.033717808361792</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.053460887968347</v>
+        <v>1.039218684938058</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038739739638141</v>
+        <v>1.054084755405825</v>
       </c>
       <c r="J5">
-        <v>1.042158391217426</v>
+        <v>1.033335020993425</v>
       </c>
       <c r="K5">
-        <v>1.046626049694986</v>
+        <v>1.043210794286895</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.05585065262693</v>
+        <v>1.048652413054373</v>
       </c>
       <c r="N5">
-        <v>1.017976823205278</v>
+        <v>1.01484030749972</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037783767464148</v>
+        <v>1.014989933401302</v>
       </c>
       <c r="D6">
-        <v>1.044253292532377</v>
+        <v>1.033901022125978</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.053506759014896</v>
+        <v>1.039427310874246</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038751349002843</v>
+        <v>1.054159257442683</v>
       </c>
       <c r="J6">
-        <v>1.042193873208168</v>
+        <v>1.03349806984627</v>
       </c>
       <c r="K6">
-        <v>1.046656608703763</v>
+        <v>1.043355959263761</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.055887868466645</v>
+        <v>1.048822998105629</v>
       </c>
       <c r="N6">
-        <v>1.017988664526057</v>
+        <v>1.014895139434072</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.037427069582931</v>
+        <v>1.013308686996348</v>
       </c>
       <c r="D7">
-        <v>1.043983122645371</v>
+        <v>1.032636184930976</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.053191316779737</v>
+        <v>1.037987248037729</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038671365364402</v>
+        <v>1.053643675972554</v>
       </c>
       <c r="J7">
-        <v>1.041949817986966</v>
+        <v>1.032372006546859</v>
       </c>
       <c r="K7">
-        <v>1.046446379844033</v>
+        <v>1.042353176909677</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.055631891299448</v>
+        <v>1.047644983753949</v>
       </c>
       <c r="N7">
-        <v>1.017907210825556</v>
+        <v>1.014516432462142</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035935353001038</v>
+        <v>1.00610649250146</v>
       </c>
       <c r="D8">
-        <v>1.042852676586276</v>
+        <v>1.027220179293273</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.051872214163184</v>
+        <v>1.031826149330423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038333174217528</v>
+        <v>1.0514046293821</v>
       </c>
       <c r="J8">
-        <v>1.040927851654514</v>
+        <v>1.027539029215965</v>
       </c>
       <c r="K8">
-        <v>1.045565181420701</v>
+        <v>1.038043639609227</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.054560103065317</v>
+        <v>1.04259160458655</v>
       </c>
       <c r="N8">
-        <v>1.017565986003915</v>
+        <v>1.01289053948457</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033303747291741</v>
+        <v>0.9926923079224877</v>
       </c>
       <c r="D9">
-        <v>1.040856234387264</v>
+        <v>1.017147556546587</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.04954549069018</v>
+        <v>1.020387026216091</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037722642065231</v>
+        <v>1.047121517315405</v>
       </c>
       <c r="J9">
-        <v>1.039119992681582</v>
+        <v>1.018505785260784</v>
       </c>
       <c r="K9">
-        <v>1.044003051460288</v>
+        <v>1.029968420603719</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.052664505380456</v>
+        <v>1.033157776335673</v>
       </c>
       <c r="N9">
-        <v>1.016961825762714</v>
+        <v>1.009849965084959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031547241863367</v>
+        <v>0.9831964924108747</v>
       </c>
       <c r="D10">
-        <v>1.039522272311946</v>
+        <v>1.01003309115514</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.047992781108499</v>
+        <v>1.012319561306721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037305806336327</v>
+        <v>1.044017138324872</v>
       </c>
       <c r="J10">
-        <v>1.037909999658138</v>
+        <v>1.012093033222692</v>
       </c>
       <c r="K10">
-        <v>1.042955333246334</v>
+        <v>1.024223527514093</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.051396071088834</v>
+        <v>1.026469888696732</v>
       </c>
       <c r="N10">
-        <v>1.016557108789284</v>
+        <v>1.007690658221677</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030786138898844</v>
+        <v>0.9789367883139539</v>
       </c>
       <c r="D11">
-        <v>1.038943937482413</v>
+        <v>1.006846825810519</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.047320065611886</v>
+        <v>1.008709185667789</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037122983217668</v>
+        <v>1.042608371314706</v>
       </c>
       <c r="J11">
-        <v>1.037384923874372</v>
+        <v>1.009212854865714</v>
       </c>
       <c r="K11">
-        <v>1.042500161572177</v>
+        <v>1.021640765905511</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.050845704926958</v>
+        <v>1.023468707460868</v>
       </c>
       <c r="N11">
-        <v>1.01638139875721</v>
+        <v>1.006720732997837</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030503350875613</v>
+        <v>0.9773307313803481</v>
       </c>
       <c r="D12">
-        <v>1.038729009566249</v>
+        <v>1.005646404325326</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.047070131173244</v>
+        <v>1.007349369505694</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037054724278529</v>
+        <v>1.042074876529482</v>
       </c>
       <c r="J12">
-        <v>1.03718971515754</v>
+        <v>1.008126476434177</v>
       </c>
       <c r="K12">
-        <v>1.042330864285878</v>
+        <v>1.020666221794467</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.050641104764227</v>
+        <v>1.022337108815764</v>
       </c>
       <c r="N12">
-        <v>1.016316062154437</v>
+        <v>1.006354876017393</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.03056401353631</v>
+        <v>0.9776763407416126</v>
       </c>
       <c r="D13">
-        <v>1.038775117254768</v>
+        <v>1.005904681123409</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.047123745590235</v>
+        <v>1.007641923618755</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03706938190683</v>
+        <v>1.042189784109153</v>
       </c>
       <c r="J13">
-        <v>1.037231595894875</v>
+        <v>1.008360274643438</v>
       </c>
       <c r="K13">
-        <v>1.042367189375119</v>
+        <v>1.020875967469245</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.050684999880071</v>
+        <v>1.022580619209736</v>
       </c>
       <c r="N13">
-        <v>1.016330080252143</v>
+        <v>1.006433611980353</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030762765204491</v>
+        <v>0.9788045266274068</v>
       </c>
       <c r="D14">
-        <v>1.038926173691614</v>
+        <v>1.006747949637202</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.047299407138666</v>
+        <v>1.008597172705225</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037117348059287</v>
+        <v>1.042564484037341</v>
       </c>
       <c r="J14">
-        <v>1.03736879137824</v>
+        <v>1.009123398345782</v>
       </c>
       <c r="K14">
-        <v>1.042486172024155</v>
+        <v>1.021560525130297</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.050828796077929</v>
+        <v>1.023375518578246</v>
       </c>
       <c r="N14">
-        <v>1.016375999444033</v>
+        <v>1.006690607099864</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030885211949926</v>
+        <v>0.9794964337581736</v>
       </c>
       <c r="D15">
-        <v>1.039019230144667</v>
+        <v>1.007265243386446</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.047407630320295</v>
+        <v>1.009183210340961</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037146855166776</v>
+        <v>1.042793979009652</v>
       </c>
       <c r="J15">
-        <v>1.037453299202511</v>
+        <v>1.009591358789443</v>
       </c>
       <c r="K15">
-        <v>1.042559451164824</v>
+        <v>1.021980262642403</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.050917371162845</v>
+        <v>1.023863020920655</v>
       </c>
       <c r="N15">
-        <v>1.016404282481483</v>
+        <v>1.006848199833582</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031597742565306</v>
+        <v>0.9834759458272012</v>
       </c>
       <c r="D16">
-        <v>1.039560639279465</v>
+        <v>1.010242241484642</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.048037418924671</v>
+        <v>1.012556605408034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037317890590031</v>
+        <v>1.044109230400856</v>
       </c>
       <c r="J16">
-        <v>1.03794482310507</v>
+        <v>1.012281917821268</v>
       </c>
       <c r="K16">
-        <v>1.042985509788367</v>
+        <v>1.024392857247099</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.051432573314872</v>
+        <v>1.026666765001989</v>
       </c>
       <c r="N16">
-        <v>1.016568760271074</v>
+        <v>1.007754265061685</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032044552575862</v>
+        <v>0.9859315043527609</v>
       </c>
       <c r="D17">
-        <v>1.039900057783488</v>
+        <v>1.012080650361538</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.04843236601394</v>
+        <v>1.014640501639417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037424552539976</v>
+        <v>1.044916619738095</v>
       </c>
       <c r="J17">
-        <v>1.038252837074339</v>
+        <v>1.013941259645855</v>
       </c>
       <c r="K17">
-        <v>1.043252362432274</v>
+        <v>1.025880126467675</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.051755444245967</v>
+        <v>1.028396608685897</v>
       </c>
       <c r="N17">
-        <v>1.016671808214679</v>
+        <v>1.008313036410798</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032305118800656</v>
+        <v>0.987349629405242</v>
       </c>
       <c r="D18">
-        <v>1.040097965367111</v>
+        <v>1.013142843122409</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.04866269514969</v>
+        <v>1.015844787872165</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037486541802807</v>
+        <v>1.045381365511553</v>
       </c>
       <c r="J18">
-        <v>1.038432386392792</v>
+        <v>1.014899221016116</v>
       </c>
       <c r="K18">
-        <v>1.043407868101914</v>
+        <v>1.026738505816814</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.051943660816119</v>
+        <v>1.029395511915507</v>
       </c>
       <c r="N18">
-        <v>1.016731869494798</v>
+        <v>1.008635612184474</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032393956636142</v>
+        <v>0.9878308172294074</v>
       </c>
       <c r="D19">
-        <v>1.040165434963602</v>
+        <v>1.013503336568084</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.048741225204362</v>
+        <v>1.016253549818503</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037507640406193</v>
+        <v>1.045538796717057</v>
       </c>
       <c r="J19">
-        <v>1.038493589433436</v>
+        <v>1.015224210406414</v>
       </c>
       <c r="K19">
-        <v>1.04346086694305</v>
+        <v>1.027029669889951</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.052007819401412</v>
+        <v>1.029734430616051</v>
       </c>
       <c r="N19">
-        <v>1.016752341240042</v>
+        <v>1.008745044323007</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031996619325156</v>
+        <v>0.985669521847746</v>
       </c>
       <c r="D20">
-        <v>1.039863648580116</v>
+        <v>1.011884460378256</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.048389995741241</v>
+        <v>1.014418087435804</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037413131980334</v>
+        <v>1.044830638436705</v>
       </c>
       <c r="J20">
-        <v>1.038219801475751</v>
+        <v>1.013764259493742</v>
       </c>
       <c r="K20">
-        <v>1.043223746666558</v>
+        <v>1.025721506021168</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.051720814485435</v>
+        <v>1.028212063001508</v>
       </c>
       <c r="N20">
-        <v>1.016660756785345</v>
+        <v>1.008253433962894</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030704240027618</v>
+        <v>0.9784729748482409</v>
       </c>
       <c r="D21">
-        <v>1.03888169433715</v>
+        <v>1.006500103339924</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.047247680795166</v>
+        <v>1.008316403489407</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037103232894035</v>
+        <v>1.042454430659248</v>
       </c>
       <c r="J21">
-        <v>1.037328395487672</v>
+        <v>1.008899142978062</v>
       </c>
       <c r="K21">
-        <v>1.042451140849407</v>
+        <v>1.021359366888623</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.050786456369623</v>
+        <v>1.023141913583307</v>
       </c>
       <c r="N21">
-        <v>1.016362479322721</v>
+        <v>1.006615085428053</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029891203311606</v>
+        <v>0.9738095459149838</v>
       </c>
       <c r="D22">
-        <v>1.038263672154656</v>
+        <v>1.003016382930946</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.046529126481516</v>
+        <v>1.004370823648446</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036906360268727</v>
+        <v>1.040901015434126</v>
       </c>
       <c r="J22">
-        <v>1.036766936514173</v>
+        <v>1.005743912654603</v>
       </c>
       <c r="K22">
-        <v>1.041964063589778</v>
+        <v>1.018528320586043</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.050198006435066</v>
+        <v>1.019856188109389</v>
       </c>
       <c r="N22">
-        <v>1.016174534906733</v>
+        <v>1.005552496184107</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030322254249152</v>
+        <v>0.9762954322120296</v>
       </c>
       <c r="D23">
-        <v>1.038591357115625</v>
+        <v>1.004872860731262</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.046910077716442</v>
+        <v>1.006473220328337</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037010918342434</v>
+        <v>1.041730326366899</v>
       </c>
       <c r="J23">
-        <v>1.037064671278398</v>
+        <v>1.00742605606136</v>
       </c>
       <c r="K23">
-        <v>1.042222396733789</v>
+        <v>1.020037810332938</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.050510048133715</v>
+        <v>1.021607656918194</v>
       </c>
       <c r="N23">
-        <v>1.016274206313981</v>
+        <v>1.00611899537351</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032018278453408</v>
+        <v>0.9857879441085312</v>
       </c>
       <c r="D24">
-        <v>1.039880100546374</v>
+        <v>1.011973141385114</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.048409141157152</v>
+        <v>1.014518621413033</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037418293134257</v>
+        <v>1.044869508778776</v>
       </c>
       <c r="J24">
-        <v>1.038234729180388</v>
+        <v>1.013844268776982</v>
       </c>
       <c r="K24">
-        <v>1.043236677347002</v>
+        <v>1.025793207889836</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.051736462518831</v>
+        <v>1.0282954823449</v>
       </c>
       <c r="N24">
-        <v>1.016665750589018</v>
+        <v>1.008280376059241</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033984445157039</v>
+        <v>0.9962524174608642</v>
       </c>
       <c r="D25">
-        <v>1.04137289083614</v>
+        <v>1.019818537843159</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.050147278269126</v>
+        <v>1.023418214305997</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037882209021786</v>
+        <v>1.04827096430592</v>
       </c>
       <c r="J25">
-        <v>1.039588203100504</v>
+        <v>1.020906564280109</v>
       </c>
       <c r="K25">
-        <v>1.044408008491422</v>
+        <v>1.032116793897654</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.053155390427034</v>
+        <v>1.035663552909318</v>
       </c>
       <c r="N25">
-        <v>1.017118357610822</v>
+        <v>1.010658221771296</v>
       </c>
     </row>
   </sheetData>
